--- a/EC/Train Runs 2016-05-12 (FRA Format).xlsx
+++ b/EC/Train Runs 2016-05-12 (FRA Format).xlsx
@@ -324,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3997" uniqueCount="1964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3993" uniqueCount="1964">
   <si>
     <t>Train ID</t>
   </si>
@@ -6203,31 +6203,32 @@
     <t>Became active with Incorrect direction of travel.</t>
   </si>
   <si>
-    <t xml:space="preserve">TMC Entered Failed State </t>
-  </si>
-  <si>
     <t>Routing at 40th</t>
   </si>
   <si>
     <t>Unhealthy XING</t>
   </si>
   <si>
-    <t>Loco 4026 was active for 2 runs</t>
-  </si>
-  <si>
     <t>PTC Run Count (2016-05-12)</t>
+  </si>
+  <si>
+    <t>TMC Entered Failed State \ Should have been Trip 206-12</t>
+  </si>
+  <si>
+    <t>Operator setup error both Pair TMCs Active</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -6275,7 +6276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -6421,37 +6422,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -6554,12 +6524,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6716,46 +6695,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6764,24 +6725,166 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="169">
+  <dxfs count="173">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -7881,90 +7984,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8193,7 +8212,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016_1" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8245,7 +8264,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016_1" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8517,7 +8536,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8577,11 +8596,11 @@
         <v>1008</v>
       </c>
       <c r="D3" s="51">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="63">
         <f>C3/(SUM(C3:D3))</f>
-        <v>0.96091515729265964</v>
+        <v>0.96183206106870234</v>
       </c>
     </row>
   </sheetData>
@@ -8615,14 +8634,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -8731,11 +8750,11 @@
         <v>42497</v>
       </c>
       <c r="K3" s="27"/>
-      <c r="L3" s="82" t="s">
+      <c r="L3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="83"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="80"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -11958,21 +11977,21 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:G149">
-    <cfRule type="expression" dxfId="56" priority="4">
+    <cfRule type="expression" dxfId="72" priority="4">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="5">
+    <cfRule type="expression" dxfId="71" priority="5">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="6">
+    <cfRule type="expression" dxfId="70" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B149">
-    <cfRule type="expression" dxfId="53" priority="2">
+    <cfRule type="expression" dxfId="69" priority="2">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="3">
+    <cfRule type="expression" dxfId="68" priority="3">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12026,15 +12045,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="81" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(J3,"YYYY-MM-DD")</f>
         <v>Eagle P3 System Performance - 2016-05-08</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -12143,11 +12162,11 @@
         <v>42498</v>
       </c>
       <c r="K3" s="27"/>
-      <c r="L3" s="82" t="s">
+      <c r="L3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="83"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="80"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -15568,26 +15587,26 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A148:G176 C3:G147">
-    <cfRule type="expression" dxfId="50" priority="5">
+    <cfRule type="expression" dxfId="66" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="6">
+    <cfRule type="expression" dxfId="65" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="7">
+    <cfRule type="expression" dxfId="64" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B147">
-    <cfRule type="expression" dxfId="47" priority="3">
+    <cfRule type="expression" dxfId="63" priority="3">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="4">
+    <cfRule type="expression" dxfId="62" priority="4">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G147">
-    <cfRule type="expression" dxfId="45" priority="1">
+    <cfRule type="expression" dxfId="61" priority="1">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15641,15 +15660,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="81" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(J3,"YYYY-MM-DD")</f>
         <v>Eagle P3 System Performance - 2016-05-09</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -15733,7 +15752,7 @@
       <c r="BM2" s="4"/>
     </row>
     <row r="3" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="66" t="s">
         <v>1376</v>
       </c>
       <c r="B3" s="6">
@@ -15758,11 +15777,11 @@
         <v>42499</v>
       </c>
       <c r="K3" s="27"/>
-      <c r="L3" s="82" t="s">
+      <c r="L3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="83"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="80"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -19137,42 +19156,42 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A146:G174 C3:G145">
-    <cfRule type="expression" dxfId="43" priority="16">
+    <cfRule type="expression" dxfId="59" priority="16">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="17">
+    <cfRule type="expression" dxfId="58" priority="17">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="18">
+    <cfRule type="expression" dxfId="57" priority="18">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B86 A88:B145 B87">
-    <cfRule type="expression" dxfId="40" priority="14">
+    <cfRule type="expression" dxfId="56" priority="14">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="15">
+    <cfRule type="expression" dxfId="55" priority="15">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G86 A88:G145 B87:G87">
-    <cfRule type="expression" dxfId="38" priority="12">
+    <cfRule type="expression" dxfId="54" priority="12">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="expression" dxfId="37" priority="6">
+    <cfRule type="expression" dxfId="53" priority="6">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="7">
+    <cfRule type="expression" dxfId="52" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="8">
+    <cfRule type="expression" dxfId="51" priority="8">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="expression" dxfId="34" priority="5">
+    <cfRule type="expression" dxfId="50" priority="5">
       <formula>NOT(ISBLANK($G87))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19226,15 +19245,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="81" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(J3,"YYYY-MM-DD")</f>
         <v>Eagle P3 System Performance - 2016-05-10</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -19343,11 +19362,11 @@
         <v>42500</v>
       </c>
       <c r="K3" s="27"/>
-      <c r="L3" s="82" t="s">
+      <c r="L3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="83"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="80"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -19503,7 +19522,7 @@
       </c>
     </row>
     <row r="8" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="66" t="s">
         <v>1461</v>
       </c>
       <c r="B8" s="6">
@@ -22698,42 +22717,42 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A145:G172 C3:D144 F3:G144">
-    <cfRule type="expression" dxfId="32" priority="12">
+    <cfRule type="expression" dxfId="48" priority="12">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="13">
+    <cfRule type="expression" dxfId="47" priority="13">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="14">
+    <cfRule type="expression" dxfId="46" priority="14">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85 A86:B144 A3:B84 E3:E144">
-    <cfRule type="expression" dxfId="29" priority="10">
+    <cfRule type="expression" dxfId="45" priority="10">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="11">
+    <cfRule type="expression" dxfId="44" priority="11">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:D85 A86:D144 A3:D84 F3:G144">
-    <cfRule type="expression" dxfId="27" priority="8">
+    <cfRule type="expression" dxfId="43" priority="8">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="26" priority="5">
+    <cfRule type="expression" dxfId="42" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="6">
+    <cfRule type="expression" dxfId="41" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="7">
+    <cfRule type="expression" dxfId="40" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="23" priority="4">
+    <cfRule type="expression" dxfId="39" priority="4">
       <formula>NOT(ISBLANK($G85))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22800,15 +22819,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="81" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(J3,"YYYY-MM-DD")</f>
         <v>Eagle P3 System Performance - 2016-05-11</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -22917,11 +22936,11 @@
         <v>42501</v>
       </c>
       <c r="K3" s="27"/>
-      <c r="L3" s="82" t="s">
+      <c r="L3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="83"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="80"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -26277,26 +26296,26 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A147:G171 D3:D146 F3:G146">
-    <cfRule type="expression" dxfId="20" priority="16">
+    <cfRule type="expression" dxfId="36" priority="16">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="35" priority="17">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="34" priority="18">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E146 A3:C146">
-    <cfRule type="expression" dxfId="17" priority="14">
+    <cfRule type="expression" dxfId="33" priority="14">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="15">
+    <cfRule type="expression" dxfId="32" priority="15">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F144:F146 D3:D143 F3:G143">
-    <cfRule type="expression" dxfId="15" priority="12">
+    <cfRule type="expression" dxfId="31" priority="12">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26354,8 +26373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G10"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26376,15 +26395,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="81" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(J3,"YYYY-MM-DD")</f>
         <v>Eagle P3 System Performance - 2016-05-10</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -26477,13 +26496,13 @@
       <c r="C3" s="23">
         <v>42502.2109837963</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="25">
         <v>42502.216412037036</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="21">
         <v>5.428240736364387E-3</v>
       </c>
       <c r="G3" s="11" t="s">
@@ -26493,33 +26512,33 @@
         <v>42500</v>
       </c>
       <c r="K3" s="27"/>
-      <c r="L3" s="82" t="s">
+      <c r="L3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="83"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="80"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
-        <v>1900</v>
+      <c r="A4" s="6" t="s">
+        <v>1913</v>
       </c>
       <c r="B4" s="6">
-        <v>4026</v>
+        <v>4025</v>
       </c>
       <c r="C4" s="23">
-        <v>42502.612407407411</v>
-      </c>
-      <c r="D4" s="23">
-        <v>42502.691782407404</v>
+        <v>42502.656307870369</v>
+      </c>
+      <c r="D4" s="25">
+        <v>42502.662777777776</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="F4" s="20">
-        <v>7.9374999993888196E-2</v>
+      <c r="F4" s="21">
+        <v>6.4699074064265005E-3</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="J4" s="34"/>
       <c r="K4" s="3" t="s">
@@ -26545,7 +26564,7 @@
       <c r="C5" s="23">
         <v>42502.748541666668</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="25">
         <v>42502.780266203707</v>
       </c>
       <c r="E5" s="18" t="s">
@@ -26555,7 +26574,7 @@
         <v>3.1724537038826384E-2</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="J5" s="28" t="s">
         <v>7</v>
@@ -26584,13 +26603,13 @@
       <c r="C6" s="23">
         <v>42502.206296296295</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="25">
         <v>42502.235486111109</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="21">
         <v>2.9189814813435078E-2</v>
       </c>
       <c r="G6" s="11" t="s">
@@ -26601,7 +26620,7 @@
       </c>
       <c r="K6" s="30">
         <f>K5-SUM(K8:K9)</f>
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L6" s="31">
         <v>44.467661691188411</v>
@@ -26615,22 +26634,22 @@
     </row>
     <row r="7" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>1908</v>
+        <v>1922</v>
       </c>
       <c r="B7" s="6">
-        <v>4008</v>
+        <v>4009</v>
       </c>
       <c r="C7" s="23">
-        <v>42502.737372685187</v>
-      </c>
-      <c r="D7" s="23">
-        <v>42502.766898148147</v>
+        <v>42502.712488425925</v>
+      </c>
+      <c r="D7" s="25">
+        <v>42502.744629629633</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>316</v>
+        <v>1370</v>
       </c>
       <c r="F7" s="20">
-        <v>2.9525462960009463E-2</v>
+        <v>3.2141203708306421E-2</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>1224</v>
@@ -26640,7 +26659,7 @@
       </c>
       <c r="K7" s="35">
         <f>K6/K5</f>
-        <v>0.94326241134751776</v>
+        <v>0.95035460992907805</v>
       </c>
       <c r="L7" s="32" t="s">
         <v>8</v>
@@ -26654,32 +26673,32 @@
     </row>
     <row r="8" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>1922</v>
+        <v>1908</v>
       </c>
       <c r="B8" s="6">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="C8" s="23">
-        <v>42502.712488425925</v>
-      </c>
-      <c r="D8" s="23">
-        <v>42502.744629629633</v>
+        <v>42502.737372685187</v>
+      </c>
+      <c r="D8" s="25">
+        <v>42502.766898148147</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>1370</v>
-      </c>
-      <c r="F8" s="20">
-        <v>3.2141203708306421E-2</v>
+        <v>316</v>
+      </c>
+      <c r="F8" s="21">
+        <v>2.9525462960009463E-2</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>1224</v>
+        <v>1962</v>
       </c>
       <c r="J8" s="28" t="s">
         <v>160</v>
       </c>
       <c r="K8" s="30">
         <f>COUNTA(G3:G143)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L8" s="32" t="s">
         <v>8</v>
@@ -26693,25 +26712,25 @@
     </row>
     <row r="9" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>1913</v>
+        <v>1928</v>
       </c>
       <c r="B9" s="6">
-        <v>4025</v>
+        <v>4018</v>
       </c>
       <c r="C9" s="23">
-        <v>42502.656307870369</v>
-      </c>
-      <c r="D9" s="23">
-        <v>42502.662777777776</v>
+        <v>42502.747557870367</v>
+      </c>
+      <c r="D9" s="25">
+        <v>42502.77783564815</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="F9" s="20">
-        <v>6.4699074064265005E-3</v>
+        <v>625</v>
+      </c>
+      <c r="F9" s="21">
+        <v>3.0277777783339843E-2</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="J9" s="29" t="s">
         <v>161</v>
@@ -26731,1704 +26750,1702 @@
     </row>
     <row r="10" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>1928</v>
+        <v>1818</v>
       </c>
       <c r="B10" s="6">
-        <v>4018</v>
+        <v>4014</v>
       </c>
       <c r="C10" s="23">
-        <v>42502.747557870367</v>
+        <v>42502.133055555554</v>
       </c>
       <c r="D10" s="23">
-        <v>42502.77783564815</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>625</v>
+        <v>42502.16070601852</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="F10" s="20">
-        <v>3.0277777783339843E-2</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>1961</v>
-      </c>
+        <v>2.7650462965539191E-2</v>
+      </c>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>1818</v>
+      <c r="A11" s="66" t="s">
+        <v>1819</v>
       </c>
       <c r="B11" s="6">
-        <v>4014</v>
+        <v>4026</v>
       </c>
       <c r="C11" s="23">
-        <v>42502.133055555554</v>
+        <v>42502.166122685187</v>
       </c>
       <c r="D11" s="23">
-        <v>42502.16070601852</v>
+        <v>42502.200219907405</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F11" s="20">
-        <v>2.7650462965539191E-2</v>
+        <v>3.4097222218406387E-2</v>
       </c>
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="B12" s="6">
-        <v>4026</v>
+        <v>4017</v>
       </c>
       <c r="C12" s="23">
-        <v>42502.166122685187</v>
+        <v>42502.190520833334</v>
       </c>
       <c r="D12" s="23">
-        <v>42502.200219907405</v>
+        <v>42502.221620370372</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>319</v>
+        <v>625</v>
       </c>
       <c r="F12" s="20">
-        <v>3.4097222218406387E-2</v>
+        <v>3.1099537038244307E-2</v>
       </c>
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="B13" s="6">
-        <v>4017</v>
+        <v>4020</v>
       </c>
       <c r="C13" s="23">
-        <v>42502.190520833334</v>
+        <v>42502.1719212963</v>
       </c>
       <c r="D13" s="23">
-        <v>42502.221620370372</v>
+        <v>42502.202372685184</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>625</v>
+        <v>322</v>
       </c>
       <c r="F13" s="20">
-        <v>3.1099537038244307E-2</v>
+        <v>3.0451388884102926E-2</v>
       </c>
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="B14" s="6">
-        <v>4020</v>
+        <v>4007</v>
       </c>
       <c r="C14" s="23">
-        <v>42502.1719212963</v>
+        <v>42502.185486111113</v>
       </c>
       <c r="D14" s="23">
-        <v>42502.202372685184</v>
+        <v>42502.212152777778</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F14" s="20">
-        <v>3.0451388884102926E-2</v>
+        <v>2.6666666664823424E-2</v>
       </c>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="B15" s="6">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="C15" s="23">
-        <v>42502.185486111113</v>
+        <v>42502.226388888892</v>
       </c>
       <c r="D15" s="23">
-        <v>42502.212152777778</v>
+        <v>42502.25371527778</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>316</v>
       </c>
       <c r="F15" s="20">
-        <v>2.6666666664823424E-2</v>
+        <v>2.73263888884685E-2</v>
       </c>
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="B16" s="6">
-        <v>4008</v>
+        <v>4009</v>
       </c>
       <c r="C16" s="23">
-        <v>42502.226388888892</v>
+        <v>42502.189201388886</v>
       </c>
       <c r="D16" s="23">
-        <v>42502.25371527778</v>
+        <v>42502.22314814815</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>316</v>
+        <v>1370</v>
       </c>
       <c r="F16" s="20">
-        <v>2.73263888884685E-2</v>
+        <v>3.3946759263926651E-2</v>
       </c>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="B17" s="6">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="C17" s="23">
-        <v>42502.189201388886</v>
+        <v>42502.228807870371</v>
       </c>
       <c r="D17" s="23">
-        <v>42502.22314814815</v>
+        <v>42502.262997685182</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>1370</v>
       </c>
       <c r="F17" s="20">
-        <v>3.3946759263926651E-2</v>
+        <v>3.4189814810815733E-2</v>
       </c>
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="B18" s="6">
-        <v>4010</v>
+        <v>4013</v>
       </c>
       <c r="C18" s="23">
-        <v>42502.228807870371</v>
+        <v>42502.243969907409</v>
       </c>
       <c r="D18" s="23">
-        <v>42502.262997685182</v>
+        <v>42502.272662037038</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>1370</v>
+        <v>321</v>
       </c>
       <c r="F18" s="20">
-        <v>3.4189814810815733E-2</v>
+        <v>2.8692129628325347E-2</v>
       </c>
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="B19" s="6">
-        <v>4013</v>
+        <v>4025</v>
       </c>
       <c r="C19" s="23">
-        <v>42502.243969907409</v>
+        <v>42502.211562500001</v>
       </c>
       <c r="D19" s="23">
-        <v>42502.272662037038</v>
+        <v>42502.243773148148</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F19" s="20">
-        <v>2.8692129628325347E-2</v>
+        <v>3.2210648147156462E-2</v>
       </c>
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B20" s="6">
-        <v>4025</v>
+        <v>4026</v>
       </c>
       <c r="C20" s="23">
-        <v>42502.211562500001</v>
+        <v>42502.250659722224</v>
       </c>
       <c r="D20" s="23">
-        <v>42502.243773148148</v>
+        <v>42502.28328703704</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>319</v>
       </c>
       <c r="F20" s="20">
-        <v>3.2210648147156462E-2</v>
+        <v>3.2627314816636499E-2</v>
       </c>
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B21" s="6">
-        <v>4026</v>
+        <v>4040</v>
       </c>
       <c r="C21" s="23">
-        <v>42502.250659722224</v>
+        <v>42502.226736111108</v>
       </c>
       <c r="D21" s="23">
-        <v>42502.28328703704</v>
+        <v>42502.253969907404</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>319</v>
+        <v>626</v>
       </c>
       <c r="F21" s="20">
-        <v>3.2627314816636499E-2</v>
+        <v>2.7233796296059154E-2</v>
       </c>
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="B22" s="6">
-        <v>4040</v>
+        <v>4039</v>
       </c>
       <c r="C22" s="23">
-        <v>42502.226736111108</v>
+        <v>42502.266898148147</v>
       </c>
       <c r="D22" s="23">
-        <v>42502.253969907404</v>
+        <v>42502.293668981481</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>626</v>
       </c>
       <c r="F22" s="20">
-        <v>2.7233796296059154E-2</v>
+        <v>2.6770833334012423E-2</v>
       </c>
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="B23" s="6">
-        <v>4039</v>
+        <v>4018</v>
       </c>
       <c r="C23" s="23">
-        <v>42502.266898148147</v>
+        <v>42502.233530092592</v>
       </c>
       <c r="D23" s="23">
-        <v>42502.293668981481</v>
+        <v>42502.264861111114</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F23" s="20">
-        <v>2.6770833334012423E-2</v>
+        <v>3.1331018522905651E-2</v>
       </c>
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B24" s="6">
-        <v>4018</v>
+        <v>4017</v>
       </c>
       <c r="C24" s="23">
-        <v>42502.233530092592</v>
+        <v>42502.272604166668</v>
       </c>
       <c r="D24" s="23">
-        <v>42502.264861111114</v>
+        <v>42502.305081018516</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>625</v>
       </c>
       <c r="F24" s="20">
-        <v>3.1331018522905651E-2</v>
+        <v>3.2476851847604848E-2</v>
       </c>
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B25" s="6">
-        <v>4017</v>
+        <v>4020</v>
       </c>
       <c r="C25" s="23">
-        <v>42502.272604166668</v>
+        <v>42502.247939814813</v>
       </c>
       <c r="D25" s="23">
-        <v>42502.305081018516</v>
+        <v>42502.275439814817</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>625</v>
+        <v>322</v>
       </c>
       <c r="F25" s="20">
-        <v>3.2476851847604848E-2</v>
+        <v>2.7500000003783498E-2</v>
       </c>
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B26" s="6">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="C26" s="23">
-        <v>42502.247939814813</v>
+        <v>42502.283113425925</v>
       </c>
       <c r="D26" s="23">
-        <v>42502.275439814817</v>
+        <v>42502.315289351849</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>322</v>
       </c>
       <c r="F26" s="20">
-        <v>2.7500000003783498E-2</v>
+        <v>3.2175925924093463E-2</v>
       </c>
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B27" s="6">
-        <v>4019</v>
+        <v>4007</v>
       </c>
       <c r="C27" s="23">
-        <v>42502.283113425925</v>
+        <v>42502.258159722223</v>
       </c>
       <c r="D27" s="23">
-        <v>42502.315289351849</v>
+        <v>42502.285613425927</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F27" s="20">
-        <v>3.2175925924093463E-2</v>
+        <v>2.7453703703940846E-2</v>
       </c>
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="B28" s="6">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="C28" s="23">
-        <v>42502.258159722223</v>
+        <v>42502.293692129628</v>
       </c>
       <c r="D28" s="23">
-        <v>42502.285613425927</v>
+        <v>42502.325555555559</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>316</v>
       </c>
       <c r="F28" s="20">
-        <v>2.7453703703940846E-2</v>
+        <v>3.1863425931078382E-2</v>
       </c>
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B29" s="6">
-        <v>4008</v>
+        <v>4009</v>
       </c>
       <c r="C29" s="23">
-        <v>42502.293692129628</v>
+        <v>42502.268877314818</v>
       </c>
       <c r="D29" s="23">
-        <v>42502.325555555559</v>
+        <v>42502.296157407407</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>316</v>
+        <v>1370</v>
       </c>
       <c r="F29" s="20">
-        <v>3.1863425931078382E-2</v>
+        <v>2.7280092588625848E-2</v>
       </c>
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B30" s="6">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="C30" s="23">
-        <v>42502.268877314818</v>
+        <v>42502.301990740743</v>
       </c>
       <c r="D30" s="23">
-        <v>42502.296157407407</v>
+        <v>42502.336273148147</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>1370</v>
       </c>
       <c r="F30" s="20">
-        <v>2.7280092588625848E-2</v>
+        <v>3.4282407403225079E-2</v>
       </c>
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B31" s="6">
-        <v>4010</v>
+        <v>4014</v>
       </c>
       <c r="C31" s="23">
-        <v>42502.301990740743</v>
+        <v>42502.276145833333</v>
       </c>
       <c r="D31" s="23">
-        <v>42502.336273148147</v>
+        <v>42502.305983796294</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>1370</v>
+        <v>321</v>
       </c>
       <c r="F31" s="20">
-        <v>3.4282407403225079E-2</v>
+        <v>2.9837962960300501E-2</v>
       </c>
       <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B32" s="6">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="C32" s="23">
-        <v>42502.276145833333</v>
+        <v>42502.314872685187</v>
       </c>
       <c r="D32" s="23">
-        <v>42502.305983796294</v>
+        <v>42502.345949074072</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>321</v>
       </c>
       <c r="F32" s="20">
-        <v>2.9837962960300501E-2</v>
+        <v>3.1076388884685002E-2</v>
       </c>
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B33" s="6">
-        <v>4013</v>
+        <v>4025</v>
       </c>
       <c r="C33" s="23">
-        <v>42502.314872685187</v>
+        <v>42502.287430555552</v>
       </c>
       <c r="D33" s="23">
-        <v>42502.345949074072</v>
+        <v>42502.316979166666</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F33" s="20">
-        <v>3.1076388884685002E-2</v>
+        <v>2.9548611113568768E-2</v>
       </c>
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B34" s="6">
-        <v>4025</v>
+        <v>4026</v>
       </c>
       <c r="C34" s="23">
-        <v>42502.287430555552</v>
+        <v>42502.326354166667</v>
       </c>
       <c r="D34" s="23">
-        <v>42502.316979166666</v>
+        <v>42502.356759259259</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>319</v>
       </c>
       <c r="F34" s="20">
-        <v>2.9548611113568768E-2</v>
+        <v>3.0405092591536231E-2</v>
       </c>
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B35" s="6">
-        <v>4026</v>
+        <v>4040</v>
       </c>
       <c r="C35" s="23">
-        <v>42502.326354166667</v>
+        <v>42502.297997685186</v>
       </c>
       <c r="D35" s="23">
-        <v>42502.356759259259</v>
+        <v>42502.3278587963</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>319</v>
+        <v>626</v>
       </c>
       <c r="F35" s="20">
-        <v>3.0405092591536231E-2</v>
+        <v>2.9861111113859806E-2</v>
       </c>
       <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B36" s="6">
-        <v>4040</v>
+        <v>4039</v>
       </c>
       <c r="C36" s="23">
-        <v>42502.297997685186</v>
+        <v>42502.341145833336</v>
       </c>
       <c r="D36" s="23">
-        <v>42502.3278587963</v>
+        <v>42502.368136574078</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>626</v>
       </c>
       <c r="F36" s="20">
-        <v>2.9861111113859806E-2</v>
+        <v>2.6990740741894115E-2</v>
       </c>
       <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B37" s="6">
-        <v>4039</v>
+        <v>4018</v>
       </c>
       <c r="C37" s="23">
-        <v>42502.341145833336</v>
+        <v>42502.309074074074</v>
       </c>
       <c r="D37" s="23">
-        <v>42502.368136574078</v>
+        <v>42502.33797453704</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F37" s="20">
-        <v>2.6990740741894115E-2</v>
+        <v>2.8900462966703344E-2</v>
       </c>
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B38" s="6">
-        <v>4018</v>
+        <v>4017</v>
       </c>
       <c r="C38" s="23">
-        <v>42502.309074074074</v>
+        <v>42502.347685185188</v>
       </c>
       <c r="D38" s="23">
-        <v>42502.33797453704</v>
+        <v>42502.377233796295</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>625</v>
       </c>
       <c r="F38" s="20">
-        <v>2.8900462966703344E-2</v>
+        <v>2.954861110629281E-2</v>
       </c>
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B39" s="6">
-        <v>4017</v>
+        <v>4020</v>
       </c>
       <c r="C39" s="23">
-        <v>42502.347685185188</v>
+        <v>42502.317870370367</v>
       </c>
       <c r="D39" s="23">
-        <v>42502.377233796295</v>
+        <v>42502.348032407404</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>625</v>
+        <v>322</v>
       </c>
       <c r="F39" s="20">
-        <v>2.954861110629281E-2</v>
+        <v>3.0162037037371192E-2</v>
       </c>
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="B40" s="6">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="C40" s="23">
-        <v>42502.317870370367</v>
+        <v>42502.357546296298</v>
       </c>
       <c r="D40" s="23">
-        <v>42502.348032407404</v>
+        <v>42502.387800925928</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>322</v>
       </c>
       <c r="F40" s="20">
-        <v>3.0162037037371192E-2</v>
+        <v>3.0254629629780538E-2</v>
       </c>
       <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B41" s="6">
-        <v>4019</v>
+        <v>4007</v>
       </c>
       <c r="C41" s="23">
-        <v>42502.357546296298</v>
+        <v>42502.332939814813</v>
       </c>
       <c r="D41" s="23">
-        <v>42502.387800925928</v>
+        <v>42502.358356481483</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F41" s="20">
-        <v>3.0254629629780538E-2</v>
+        <v>2.5416666670935228E-2</v>
       </c>
       <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B42" s="6">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="C42" s="23">
-        <v>42502.332939814813</v>
+        <v>42502.365532407406</v>
       </c>
       <c r="D42" s="23">
-        <v>42502.358356481483</v>
+        <v>42502.3984375</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>316</v>
       </c>
       <c r="F42" s="20">
-        <v>2.5416666670935228E-2</v>
+        <v>3.2905092593864538E-2</v>
       </c>
       <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B43" s="6">
-        <v>4008</v>
+        <v>4009</v>
       </c>
       <c r="C43" s="23">
-        <v>42502.365532407406</v>
+        <v>42502.338993055557</v>
       </c>
       <c r="D43" s="23">
-        <v>42502.3984375</v>
+        <v>42502.368692129632</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>316</v>
+        <v>1370</v>
       </c>
       <c r="F43" s="20">
-        <v>3.2905092593864538E-2</v>
+        <v>2.9699074075324461E-2</v>
       </c>
       <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B44" s="6">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="C44" s="23">
-        <v>42502.338993055557</v>
+        <v>42502.373206018521</v>
       </c>
       <c r="D44" s="23">
-        <v>42502.368692129632</v>
+        <v>42502.408310185187</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>1370</v>
       </c>
       <c r="F44" s="20">
-        <v>2.9699074075324461E-2</v>
+        <v>3.5104166665405501E-2</v>
       </c>
       <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B45" s="6">
-        <v>4010</v>
+        <v>4014</v>
       </c>
       <c r="C45" s="23">
-        <v>42502.373206018521</v>
+        <v>42502.349143518521</v>
       </c>
       <c r="D45" s="23">
-        <v>42502.408310185187</v>
+        <v>42502.379074074073</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>1370</v>
+        <v>321</v>
       </c>
       <c r="F45" s="20">
-        <v>3.5104166665405501E-2</v>
+        <v>2.9930555552709848E-2</v>
       </c>
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B46" s="6">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="C46" s="23">
-        <v>42502.349143518521</v>
+        <v>42502.390648148146</v>
       </c>
       <c r="D46" s="23">
-        <v>42502.379074074073</v>
+        <v>42502.418761574074</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>321</v>
       </c>
       <c r="F46" s="20">
-        <v>2.9930555552709848E-2</v>
+        <v>2.8113425927585922E-2</v>
       </c>
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="B47" s="6">
-        <v>4013</v>
+        <v>4025</v>
       </c>
       <c r="C47" s="23">
-        <v>42502.390648148146</v>
+        <v>42502.359525462962</v>
       </c>
       <c r="D47" s="23">
-        <v>42502.418761574074</v>
+        <v>42502.389930555553</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F47" s="20">
-        <v>2.8113425927585922E-2</v>
+        <v>3.0405092591536231E-2</v>
       </c>
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="B48" s="6">
-        <v>4025</v>
+        <v>4026</v>
       </c>
       <c r="C48" s="23">
-        <v>42502.359525462962</v>
+        <v>42502.396967592591</v>
       </c>
       <c r="D48" s="23">
-        <v>42502.389930555553</v>
+        <v>42502.429178240738</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>319</v>
       </c>
       <c r="F48" s="20">
-        <v>3.0405092591536231E-2</v>
+        <v>3.2210648147156462E-2</v>
       </c>
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B49" s="6">
-        <v>4026</v>
+        <v>4040</v>
       </c>
       <c r="C49" s="23">
-        <v>42502.396967592591</v>
+        <v>42502.373831018522</v>
       </c>
       <c r="D49" s="23">
-        <v>42502.429178240738</v>
+        <v>42502.399664351855</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>319</v>
+        <v>626</v>
       </c>
       <c r="F49" s="20">
-        <v>3.2210648147156462E-2</v>
+        <v>2.5833333333139308E-2</v>
       </c>
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B50" s="6">
-        <v>4040</v>
+        <v>4039</v>
       </c>
       <c r="C50" s="23">
-        <v>42502.373831018522</v>
+        <v>42502.414074074077</v>
       </c>
       <c r="D50" s="23">
-        <v>42502.399664351855</v>
+        <v>42502.439965277779</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>626</v>
       </c>
       <c r="F50" s="20">
-        <v>2.5833333333139308E-2</v>
+        <v>2.5891203702485655E-2</v>
       </c>
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B51" s="6">
-        <v>4039</v>
+        <v>4018</v>
       </c>
       <c r="C51" s="23">
-        <v>42502.414074074077</v>
+        <v>42502.381620370368</v>
       </c>
       <c r="D51" s="23">
-        <v>42502.439965277779</v>
+        <v>42502.410856481481</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F51" s="20">
-        <v>2.5891203702485655E-2</v>
+        <v>2.923611111327773E-2</v>
       </c>
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="B52" s="6">
-        <v>4018</v>
+        <v>4017</v>
       </c>
       <c r="C52" s="23">
-        <v>42502.381620370368</v>
+        <v>42502.421076388891</v>
       </c>
       <c r="D52" s="23">
-        <v>42502.410856481481</v>
+        <v>42502.450613425928</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>625</v>
       </c>
       <c r="F52" s="20">
-        <v>2.923611111327773E-2</v>
+        <v>2.9537037036789116E-2</v>
       </c>
       <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B53" s="6">
-        <v>4017</v>
+        <v>4020</v>
       </c>
       <c r="C53" s="23">
-        <v>42502.421076388891</v>
+        <v>42502.390613425923</v>
       </c>
       <c r="D53" s="23">
-        <v>42502.450613425928</v>
+        <v>42502.420949074076</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>625</v>
+        <v>322</v>
       </c>
       <c r="F53" s="20">
-        <v>2.9537037036789116E-2</v>
+        <v>3.033564815268619E-2</v>
       </c>
       <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="B54" s="6">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="C54" s="23">
-        <v>42502.390613425923</v>
+        <v>42502.423425925925</v>
       </c>
       <c r="D54" s="23">
-        <v>42502.420949074076</v>
+        <v>42502.460682870369</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>322</v>
       </c>
       <c r="F54" s="20">
-        <v>3.033564815268619E-2</v>
+        <v>3.7256944444379769E-2</v>
       </c>
       <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="B55" s="6">
-        <v>4019</v>
+        <v>4007</v>
       </c>
       <c r="C55" s="23">
-        <v>42502.423425925925</v>
+        <v>42502.405335648145</v>
       </c>
       <c r="D55" s="23">
-        <v>42502.460682870369</v>
+        <v>42502.431041666663</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F55" s="20">
-        <v>3.7256944444379769E-2</v>
+        <v>2.5706018517666962E-2</v>
       </c>
       <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="B56" s="6">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="C56" s="23">
-        <v>42502.405335648145</v>
+        <v>42502.444282407407</v>
       </c>
       <c r="D56" s="23">
-        <v>42502.431041666663</v>
+        <v>42502.472557870373</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>316</v>
       </c>
       <c r="F56" s="20">
-        <v>2.5706018517666962E-2</v>
+        <v>2.8275462966121268E-2</v>
       </c>
       <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="B57" s="6">
-        <v>4008</v>
+        <v>4009</v>
       </c>
       <c r="C57" s="23">
-        <v>42502.444282407407</v>
+        <v>42502.412048611113</v>
       </c>
       <c r="D57" s="23">
-        <v>42502.472557870373</v>
+        <v>42502.441851851851</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>316</v>
+        <v>1370</v>
       </c>
       <c r="F57" s="20">
-        <v>2.8275462966121268E-2</v>
+        <v>2.9803240737237502E-2</v>
       </c>
       <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B58" s="6">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="C58" s="23">
-        <v>42502.412048611113</v>
+        <v>42502.448738425926</v>
       </c>
       <c r="D58" s="23">
-        <v>42502.441851851851</v>
+        <v>42502.481550925928</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>1370</v>
       </c>
       <c r="F58" s="20">
-        <v>2.9803240737237502E-2</v>
+        <v>3.2812500001455192E-2</v>
       </c>
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="B59" s="6">
-        <v>4010</v>
+        <v>4014</v>
       </c>
       <c r="C59" s="23">
-        <v>42502.448738425926</v>
+        <v>42502.424340277779</v>
       </c>
       <c r="D59" s="23">
-        <v>42502.481550925928</v>
+        <v>42502.451469907406</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>1370</v>
+        <v>321</v>
       </c>
       <c r="F59" s="20">
-        <v>3.2812500001455192E-2</v>
+        <v>2.7129629626870155E-2</v>
       </c>
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="B60" s="6">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="C60" s="23">
-        <v>42502.424340277779</v>
+        <v>42502.460636574076</v>
       </c>
       <c r="D60" s="23">
-        <v>42502.451469907406</v>
+        <v>42502.49113425926</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>321</v>
       </c>
       <c r="F60" s="20">
-        <v>2.7129629626870155E-2</v>
+        <v>3.0497685183945578E-2</v>
       </c>
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="B61" s="6">
-        <v>4013</v>
+        <v>4025</v>
       </c>
       <c r="C61" s="23">
-        <v>42502.460636574076</v>
+        <v>42502.432766203703</v>
       </c>
       <c r="D61" s="23">
-        <v>42502.49113425926</v>
+        <v>42502.462418981479</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F61" s="20">
-        <v>3.0497685183945578E-2</v>
+        <v>2.9652777775481809E-2</v>
       </c>
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="B62" s="6">
-        <v>4025</v>
+        <v>4026</v>
       </c>
       <c r="C62" s="23">
-        <v>42502.432766203703</v>
+        <v>42502.47142361111</v>
       </c>
       <c r="D62" s="23">
-        <v>42502.462418981479</v>
+        <v>42502.502523148149</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>319</v>
       </c>
       <c r="F62" s="20">
-        <v>2.9652777775481809E-2</v>
+        <v>3.1099537038244307E-2</v>
       </c>
       <c r="G62" s="11"/>
     </row>
     <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="B63" s="6">
-        <v>4026</v>
+        <v>4040</v>
       </c>
       <c r="C63" s="23">
-        <v>42502.47142361111</v>
+        <v>42502.443912037037</v>
       </c>
       <c r="D63" s="23">
-        <v>42502.502523148149</v>
+        <v>42502.47315972222</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>319</v>
+        <v>626</v>
       </c>
       <c r="F63" s="20">
-        <v>3.1099537038244307E-2</v>
+        <v>2.9247685182781424E-2</v>
       </c>
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="B64" s="6">
-        <v>4040</v>
+        <v>4039</v>
       </c>
       <c r="C64" s="23">
-        <v>42502.443912037037</v>
+        <v>42502.483634259261</v>
       </c>
       <c r="D64" s="23">
-        <v>42502.47315972222</v>
+        <v>42502.51290509259</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>626</v>
       </c>
       <c r="F64" s="20">
-        <v>2.9247685182781424E-2</v>
+        <v>2.9270833329064772E-2</v>
       </c>
       <c r="G64" s="11"/>
     </row>
     <row r="65" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="B65" s="6">
-        <v>4039</v>
+        <v>4018</v>
       </c>
       <c r="C65" s="23">
-        <v>42502.483634259261</v>
+        <v>42502.457395833335</v>
       </c>
       <c r="D65" s="23">
-        <v>42502.51290509259</v>
+        <v>42502.483090277776</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F65" s="20">
-        <v>2.9270833329064772E-2</v>
+        <v>2.569444444088731E-2</v>
       </c>
       <c r="G65" s="11"/>
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="B66" s="6">
-        <v>4018</v>
+        <v>4017</v>
       </c>
       <c r="C66" s="23">
-        <v>42502.457395833335</v>
+        <v>42502.497569444444</v>
       </c>
       <c r="D66" s="23">
-        <v>42502.483090277776</v>
+        <v>42502.52275462963</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>625</v>
       </c>
       <c r="F66" s="20">
-        <v>2.569444444088731E-2</v>
+        <v>2.5185185186273884E-2</v>
       </c>
       <c r="G66" s="11"/>
     </row>
     <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="B67" s="6">
-        <v>4017</v>
+        <v>4020</v>
       </c>
       <c r="C67" s="23">
-        <v>42502.497569444444</v>
+        <v>42502.465613425928</v>
       </c>
       <c r="D67" s="23">
-        <v>42502.52275462963</v>
+        <v>42502.493703703702</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>625</v>
+        <v>322</v>
       </c>
       <c r="F67" s="20">
-        <v>2.5185185186273884E-2</v>
+        <v>2.8090277774026617E-2</v>
       </c>
       <c r="G67" s="11"/>
     </row>
     <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="B68" s="6">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="C68" s="23">
-        <v>42502.465613425928</v>
+        <v>42502.500243055554</v>
       </c>
       <c r="D68" s="23">
-        <v>42502.493703703702</v>
+        <v>42502.533321759256</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>322</v>
       </c>
       <c r="F68" s="20">
-        <v>2.8090277774026617E-2</v>
+        <v>3.3078703701903578E-2</v>
       </c>
       <c r="G68" s="11"/>
     </row>
     <row r="69" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="B69" s="6">
-        <v>4019</v>
+        <v>4007</v>
       </c>
       <c r="C69" s="23">
-        <v>42502.500243055554</v>
+        <v>42502.477962962963</v>
       </c>
       <c r="D69" s="23">
-        <v>42502.533321759256</v>
+        <v>42502.505266203705</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F69" s="20">
-        <v>3.3078703701903578E-2</v>
+        <v>2.7303240742185153E-2</v>
       </c>
       <c r="G69" s="11"/>
     </row>
     <row r="70" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="B70" s="6">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="C70" s="23">
-        <v>42502.477962962963</v>
+        <v>42502.515590277777</v>
       </c>
       <c r="D70" s="23">
-        <v>42502.505266203705</v>
+        <v>42502.543611111112</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>316</v>
       </c>
       <c r="F70" s="20">
-        <v>2.7303240742185153E-2</v>
+        <v>2.8020833335176576E-2</v>
       </c>
       <c r="G70" s="11"/>
     </row>
     <row r="71" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B71" s="6">
-        <v>4008</v>
+        <v>4009</v>
       </c>
       <c r="C71" s="23">
-        <v>42502.515590277777</v>
+        <v>42502.485983796294</v>
       </c>
       <c r="D71" s="23">
-        <v>42502.543611111112</v>
+        <v>42502.514432870368</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>316</v>
+        <v>1370</v>
       </c>
       <c r="F71" s="20">
-        <v>2.8020833335176576E-2</v>
+        <v>2.8449074074160308E-2</v>
       </c>
       <c r="G71" s="11"/>
     </row>
     <row r="72" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="B72" s="6">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="C72" s="23">
-        <v>42502.485983796294</v>
+        <v>42502.522627314815</v>
       </c>
       <c r="D72" s="23">
-        <v>42502.514432870368</v>
+        <v>42502.554722222223</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>1370</v>
       </c>
       <c r="F72" s="20">
-        <v>2.8449074074160308E-2</v>
+        <v>3.2094907408463769E-2</v>
       </c>
       <c r="G72" s="11"/>
     </row>
     <row r="73" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B73" s="6">
-        <v>4010</v>
+        <v>4014</v>
       </c>
       <c r="C73" s="23">
-        <v>42502.522627314815</v>
+        <v>42502.49722222222</v>
       </c>
       <c r="D73" s="23">
-        <v>42502.554722222223</v>
+        <v>42502.525243055556</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>1370</v>
+        <v>321</v>
       </c>
       <c r="F73" s="20">
-        <v>3.2094907408463769E-2</v>
+        <v>2.8020833335176576E-2</v>
       </c>
       <c r="G73" s="11"/>
     </row>
     <row r="74" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="B74" s="6">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="C74" s="23">
-        <v>42502.49722222222</v>
+        <v>42502.538888888892</v>
       </c>
       <c r="D74" s="23">
-        <v>42502.525243055556</v>
+        <v>42502.564606481479</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>321</v>
       </c>
       <c r="F74" s="20">
-        <v>2.8020833335176576E-2</v>
+        <v>2.5717592587170657E-2</v>
       </c>
       <c r="G74" s="11"/>
     </row>
     <row r="75" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="B75" s="6">
-        <v>4013</v>
+        <v>4025</v>
       </c>
       <c r="C75" s="23">
-        <v>42502.538888888892</v>
+        <v>42502.507060185184</v>
       </c>
       <c r="D75" s="23">
-        <v>42502.564606481479</v>
+        <v>42502.536608796298</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F75" s="20">
-        <v>2.5717592587170657E-2</v>
+        <v>2.9548611113568768E-2</v>
       </c>
       <c r="G75" s="11"/>
     </row>
     <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B76" s="6">
-        <v>4025</v>
+        <v>4026</v>
       </c>
       <c r="C76" s="23">
-        <v>42502.507060185184</v>
+        <v>42502.54210648148</v>
       </c>
       <c r="D76" s="23">
-        <v>42502.536608796298</v>
+        <v>42502.576585648145</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>319</v>
       </c>
       <c r="F76" s="20">
-        <v>2.9548611113568768E-2</v>
+        <v>3.4479166664823424E-2</v>
       </c>
       <c r="G76" s="11"/>
     </row>
     <row r="77" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="B77" s="6">
-        <v>4026</v>
+        <v>4040</v>
       </c>
       <c r="C77" s="23">
-        <v>42502.54210648148</v>
+        <v>42502.519375000003</v>
       </c>
       <c r="D77" s="23">
-        <v>42502.576585648145</v>
+        <v>42502.545810185184</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>319</v>
+        <v>626</v>
       </c>
       <c r="F77" s="20">
-        <v>3.4479166664823424E-2</v>
+        <v>2.643518518016208E-2</v>
       </c>
       <c r="G77" s="11"/>
     </row>
     <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B78" s="6">
-        <v>4040</v>
+        <v>4039</v>
       </c>
       <c r="C78" s="23">
-        <v>42502.519375000003</v>
+        <v>42502.557604166665</v>
       </c>
       <c r="D78" s="23">
-        <v>42502.545810185184</v>
+        <v>42502.586585648147</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>626</v>
       </c>
       <c r="F78" s="20">
-        <v>2.643518518016208E-2</v>
+        <v>2.8981481482333038E-2</v>
       </c>
       <c r="G78" s="11"/>
     </row>
     <row r="79" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="B79" s="6">
-        <v>4039</v>
+        <v>4018</v>
       </c>
       <c r="C79" s="23">
-        <v>42502.557604166665</v>
+        <v>42502.527141203704</v>
       </c>
       <c r="D79" s="23">
-        <v>42502.586585648147</v>
+        <v>42502.556226851855</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F79" s="20">
-        <v>2.8981481482333038E-2</v>
+        <v>2.9085648151522037E-2</v>
       </c>
       <c r="G79" s="11"/>
     </row>
     <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B80" s="6">
-        <v>4018</v>
+        <v>4017</v>
       </c>
       <c r="C80" s="23">
-        <v>42502.527141203704</v>
+        <v>42502.564965277779</v>
       </c>
       <c r="D80" s="23">
-        <v>42502.556226851855</v>
+        <v>42502.59642361111</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>625</v>
       </c>
       <c r="F80" s="20">
-        <v>2.9085648151522037E-2</v>
+        <v>3.145833333110204E-2</v>
       </c>
       <c r="G80" s="11"/>
     </row>
     <row r="81" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="B81" s="6">
-        <v>4017</v>
+        <v>4020</v>
       </c>
       <c r="C81" s="23">
-        <v>42502.564965277779</v>
+        <v>42502.538252314815</v>
       </c>
       <c r="D81" s="23">
-        <v>42502.59642361111</v>
+        <v>42502.567407407405</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>625</v>
+        <v>322</v>
       </c>
       <c r="F81" s="20">
-        <v>3.145833333110204E-2</v>
+        <v>2.9155092590372078E-2</v>
       </c>
       <c r="G81" s="11"/>
     </row>
     <row r="82" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="B82" s="6">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="C82" s="23">
-        <v>42502.538252314815</v>
+        <v>42502.577013888891</v>
       </c>
       <c r="D82" s="23">
-        <v>42502.567407407405</v>
+        <v>42502.606562499997</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>322</v>
       </c>
       <c r="F82" s="20">
-        <v>2.9155092590372078E-2</v>
+        <v>2.954861110629281E-2</v>
       </c>
       <c r="G82" s="11"/>
     </row>
     <row r="83" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B83" s="6">
-        <v>4019</v>
+        <v>4007</v>
       </c>
       <c r="C83" s="23">
-        <v>42502.577013888891</v>
+        <v>42502.547002314815</v>
       </c>
       <c r="D83" s="23">
-        <v>42502.606562499997</v>
+        <v>42502.578009259261</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F83" s="20">
-        <v>2.954861110629281E-2</v>
+        <v>3.1006944445834961E-2</v>
       </c>
       <c r="G83" s="11"/>
     </row>
     <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="B84" s="6">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="C84" s="23">
-        <v>42502.547002314815</v>
+        <v>42502.586076388892</v>
       </c>
       <c r="D84" s="23">
-        <v>42502.578009259261</v>
+        <v>42502.617094907408</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>316</v>
       </c>
       <c r="F84" s="20">
-        <v>3.1006944445834961E-2</v>
+        <v>3.1018518515338656E-2</v>
       </c>
       <c r="G84" s="11"/>
     </row>
     <row r="85" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B85" s="6">
-        <v>4008</v>
+        <v>4009</v>
       </c>
       <c r="C85" s="23">
-        <v>42502.586076388892</v>
+        <v>42502.557916666665</v>
       </c>
       <c r="D85" s="23">
-        <v>42502.617094907408</v>
+        <v>42502.587835648148</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>316</v>
+        <v>1370</v>
       </c>
       <c r="F85" s="20">
-        <v>3.1018518515338656E-2</v>
+        <v>2.9918981483206153E-2</v>
       </c>
       <c r="G85" s="11"/>
     </row>
     <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="B86" s="6">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="C86" s="23">
-        <v>42502.557916666665</v>
+        <v>42502.592210648145</v>
       </c>
       <c r="D86" s="23">
-        <v>42502.587835648148</v>
+        <v>42502.628958333335</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>1370</v>
       </c>
       <c r="F86" s="20">
-        <v>2.9918981483206153E-2</v>
+        <v>3.6747685189766344E-2</v>
       </c>
       <c r="G86" s="11"/>
     </row>
     <row r="87" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="B87" s="6">
-        <v>4010</v>
+        <v>4014</v>
       </c>
       <c r="C87" s="23">
-        <v>42502.592210648145</v>
+        <v>42502.570335648146</v>
       </c>
       <c r="D87" s="23">
-        <v>42502.628958333335</v>
+        <v>42502.597766203704</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>1370</v>
+        <v>321</v>
       </c>
       <c r="F87" s="20">
-        <v>3.6747685189766344E-2</v>
+        <v>2.7430555557657499E-2</v>
       </c>
       <c r="G87" s="11"/>
     </row>
     <row r="88" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="B88" s="6">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="C88" s="23">
-        <v>42502.570335648146</v>
+        <v>42502.611527777779</v>
       </c>
       <c r="D88" s="23">
-        <v>42502.597766203704</v>
+        <v>42502.642013888886</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>321</v>
       </c>
       <c r="F88" s="20">
-        <v>2.7430555557657499E-2</v>
+        <v>3.0486111107165925E-2</v>
       </c>
       <c r="G88" s="11"/>
     </row>
     <row r="89" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="B89" s="6">
-        <v>4013</v>
+        <v>4025</v>
       </c>
       <c r="C89" s="23">
-        <v>42502.611527777779</v>
+        <v>42502.578993055555</v>
       </c>
       <c r="D89" s="23">
-        <v>42502.642013888886</v>
+        <v>42502.609953703701</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F89" s="20">
-        <v>3.0486111107165925E-2</v>
+        <v>3.0960648145992309E-2</v>
       </c>
       <c r="G89" s="11"/>
     </row>
     <row r="90" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="B90" s="6">
-        <v>4025</v>
+        <v>4026</v>
       </c>
       <c r="C90" s="23">
-        <v>42502.578993055555</v>
+        <v>42502.612407407411</v>
       </c>
       <c r="D90" s="23">
-        <v>42502.609953703701</v>
+        <v>42502.658101851855</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>319</v>
       </c>
       <c r="F90" s="20">
-        <v>3.0960648145992309E-2</v>
+        <v>4.5694444444961846E-2</v>
       </c>
       <c r="G90" s="11"/>
     </row>
@@ -29818,47 +29835,52 @@
       <c r="G171" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:G2">
+    <sortState ref="A3:G143">
+      <sortCondition ref="G2"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A144:G171 C3:D143 F3:G143">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="27" priority="10">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="26" priority="11">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="25" priority="12">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85 A3:B84 A86:B143 E3:E143">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="23" priority="9">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:D85 A3:D84 A86:D143 F3:G143">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>NOT(ISBLANK($G85))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29904,10 +29926,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29918,7 +29940,7 @@
     <col min="4" max="5" width="18.28515625" style="46" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="94.140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="94.140625" style="87" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -29943,7 +29965,7 @@
       <c r="G1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="82" t="s">
         <v>10</v>
       </c>
     </row>
@@ -29969,7 +29991,7 @@
       <c r="G2" s="21">
         <v>7.2800925918272696E-3</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="83" t="s">
         <v>927</v>
       </c>
     </row>
@@ -29995,7 +30017,7 @@
       <c r="G3" s="21">
         <v>2.3958333331393078E-2</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="H3" s="83" t="s">
         <v>931</v>
       </c>
     </row>
@@ -30021,7 +30043,7 @@
       <c r="G4" s="21">
         <v>1.8356481479713693E-2</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="83" t="s">
         <v>929</v>
       </c>
     </row>
@@ -30047,7 +30069,7 @@
       <c r="G5" s="21">
         <v>1.5185185184236616E-2</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="84" t="s">
         <v>928</v>
       </c>
     </row>
@@ -30073,7 +30095,7 @@
       <c r="G6" s="21">
         <v>6.2731481521041133E-3</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="84" t="s">
         <v>930</v>
       </c>
     </row>
@@ -30099,7 +30121,7 @@
       <c r="G7" s="21">
         <v>2.6805555557075422E-2</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="83" t="s">
         <v>932</v>
       </c>
     </row>
@@ -30125,7 +30147,7 @@
       <c r="G8" s="21">
         <v>3.4085648141626734E-2</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="H8" s="83" t="s">
         <v>1227</v>
       </c>
     </row>
@@ -30151,7 +30173,7 @@
       <c r="G9" s="21">
         <v>2.9317129636183381E-2</v>
       </c>
-      <c r="H9" s="66" t="s">
+      <c r="H9" s="83" t="s">
         <v>1225</v>
       </c>
     </row>
@@ -30177,7 +30199,7 @@
       <c r="G10" s="21">
         <v>2.9212962959718425E-2</v>
       </c>
-      <c r="H10" s="66" t="s">
+      <c r="H10" s="83" t="s">
         <v>1226</v>
       </c>
     </row>
@@ -30203,7 +30225,7 @@
       <c r="G11" s="21">
         <v>2.4930555555329192E-2</v>
       </c>
-      <c r="H11" s="66" t="s">
+      <c r="H11" s="83" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -30229,7 +30251,7 @@
       <c r="G12" s="21">
         <v>4.6064814814599231E-3</v>
       </c>
-      <c r="H12" s="66" t="s">
+      <c r="H12" s="83" t="s">
         <v>1224</v>
       </c>
     </row>
@@ -30255,7 +30277,7 @@
       <c r="G13" s="21">
         <v>0</v>
       </c>
-      <c r="H13" s="66" t="s">
+      <c r="H13" s="83" t="s">
         <v>1224</v>
       </c>
     </row>
@@ -30281,7 +30303,7 @@
       <c r="G14" s="21">
         <v>1.0208333333139308E-2</v>
       </c>
-      <c r="H14" s="66" t="s">
+      <c r="H14" s="83" t="s">
         <v>1224</v>
       </c>
     </row>
@@ -30307,7 +30329,7 @@
       <c r="G15" s="21">
         <v>6.7939814834971912E-3</v>
       </c>
-      <c r="H15" s="66" t="s">
+      <c r="H15" s="83" t="s">
         <v>1224</v>
       </c>
     </row>
@@ -30333,7 +30355,7 @@
       <c r="G16" s="21">
         <v>0</v>
       </c>
-      <c r="H16" s="66" t="s">
+      <c r="H16" s="83" t="s">
         <v>1377</v>
       </c>
     </row>
@@ -30359,7 +30381,7 @@
       <c r="G17" s="21">
         <v>2.3796296292857733E-2</v>
       </c>
-      <c r="H17" s="66" t="s">
+      <c r="H17" s="83" t="s">
         <v>1378</v>
       </c>
     </row>
@@ -30373,10 +30395,10 @@
       <c r="C18" s="43">
         <v>4023</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="89">
         <v>42499.540243055555</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="89">
         <v>42499.560243055559</v>
       </c>
       <c r="F18" s="43" t="s">
@@ -30385,7 +30407,7 @@
       <c r="G18" s="21">
         <v>2.8969907412829343E-2</v>
       </c>
-      <c r="H18" s="66" t="s">
+      <c r="H18" s="83" t="s">
         <v>1371</v>
       </c>
     </row>
@@ -30399,19 +30421,19 @@
       <c r="C19" s="43">
         <v>4044</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="89">
         <v>42499.788726851853</v>
       </c>
-      <c r="E19" s="43">
+      <c r="E19" s="89">
         <v>42499.820601851854</v>
       </c>
       <c r="F19" s="43" t="s">
         <v>317</v>
       </c>
-      <c r="G19" s="43">
+      <c r="G19" s="88">
         <v>3.1875000000582077E-2</v>
       </c>
-      <c r="H19" s="43" t="s">
+      <c r="H19" s="85" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -30425,19 +30447,19 @@
       <c r="C20" s="43">
         <v>4015</v>
       </c>
-      <c r="D20" s="43">
+      <c r="D20" s="89">
         <v>42499.731446759259</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E20" s="89">
         <v>42499.756284722222</v>
       </c>
       <c r="F20" s="43" t="s">
         <v>324</v>
       </c>
-      <c r="G20" s="43">
+      <c r="G20" s="88">
         <v>2.4837962962919846E-2</v>
       </c>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="85" t="s">
         <v>1373</v>
       </c>
     </row>
@@ -30451,19 +30473,19 @@
       <c r="C21" s="43">
         <v>4038</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="89">
         <v>42499.528923611113</v>
       </c>
-      <c r="E21" s="43">
+      <c r="E21" s="89">
         <v>42499.542210648149</v>
       </c>
       <c r="F21" s="43" t="s">
         <v>320</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="88">
         <v>2.9189814813435078E-2</v>
       </c>
-      <c r="H21" s="43" t="s">
+      <c r="H21" s="85" t="s">
         <v>1372</v>
       </c>
     </row>
@@ -30477,19 +30499,19 @@
       <c r="C22" s="43">
         <v>4024</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="89">
         <v>42501.152777777781</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="89" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="43" t="s">
         <v>318</v>
       </c>
-      <c r="G22" s="43" t="s">
+      <c r="G22" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="43" t="s">
+      <c r="H22" s="85" t="s">
         <v>1524</v>
       </c>
     </row>
@@ -30503,19 +30525,19 @@
       <c r="C23" s="43">
         <v>4008</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="89">
         <v>42500.637314814812</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="89">
         <v>42500.653182870374</v>
       </c>
       <c r="F23" s="43" t="s">
         <v>316</v>
       </c>
-      <c r="G23" s="43">
+      <c r="G23" s="88">
         <v>1.5868055561440997E-2</v>
       </c>
-      <c r="H23" s="43" t="s">
+      <c r="H23" s="85" t="s">
         <v>1524</v>
       </c>
     </row>
@@ -30529,19 +30551,19 @@
       <c r="C24" s="43">
         <v>4011</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="89">
         <v>42500.5153587963</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="89">
         <v>42500.537673611114</v>
       </c>
       <c r="F24" s="43" t="s">
         <v>476</v>
       </c>
-      <c r="G24" s="43">
+      <c r="G24" s="88">
         <v>2.2314814814308193E-2</v>
       </c>
-      <c r="H24" s="43" t="s">
+      <c r="H24" s="85" t="s">
         <v>1522</v>
       </c>
     </row>
@@ -30555,19 +30577,19 @@
       <c r="C25" s="43">
         <v>4043</v>
       </c>
-      <c r="D25" s="43">
+      <c r="D25" s="89">
         <v>42501.056921296295</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="89">
         <v>42501.085092592592</v>
       </c>
       <c r="F25" s="43" t="s">
         <v>317</v>
       </c>
-      <c r="G25" s="43">
+      <c r="G25" s="88">
         <v>2.8171296296932269E-2</v>
       </c>
-      <c r="H25" s="43" t="s">
+      <c r="H25" s="85" t="s">
         <v>1522</v>
       </c>
     </row>
@@ -30581,19 +30603,19 @@
       <c r="C26" s="43">
         <v>4020</v>
       </c>
-      <c r="D26" s="43">
+      <c r="D26" s="89">
         <v>42500.347800925927</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="89">
         <v>42500.377928240741</v>
       </c>
       <c r="F26" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="G26" s="43">
+      <c r="G26" s="88">
         <v>3.0127314814308193E-2</v>
       </c>
-      <c r="H26" s="43" t="s">
+      <c r="H26" s="85" t="s">
         <v>1521</v>
       </c>
     </row>
@@ -30607,19 +30629,19 @@
       <c r="C27" s="43">
         <v>4011</v>
       </c>
-      <c r="D27" s="43">
+      <c r="D27" s="89">
         <v>42500.581238425926</v>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="89">
         <v>42500.606261574074</v>
       </c>
       <c r="F27" s="43" t="s">
         <v>476</v>
       </c>
-      <c r="G27" s="43">
+      <c r="G27" s="88">
         <v>2.5023148147738539E-2</v>
       </c>
-      <c r="H27" s="43" t="s">
+      <c r="H27" s="85" t="s">
         <v>1521</v>
       </c>
     </row>
@@ -30633,19 +30655,19 @@
       <c r="C28" s="43">
         <v>4019</v>
       </c>
-      <c r="D28" s="43">
+      <c r="D28" s="89">
         <v>42500.908449074072</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="89">
         <v>42500.939606481479</v>
       </c>
       <c r="F28" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="G28" s="43">
+      <c r="G28" s="88">
         <v>3.1157407407590654E-2</v>
       </c>
-      <c r="H28" s="43" t="s">
+      <c r="H28" s="85" t="s">
         <v>1521</v>
       </c>
     </row>
@@ -30659,19 +30681,19 @@
       <c r="C29" s="43">
         <v>4024</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="89">
         <v>42500.445138888892</v>
       </c>
-      <c r="E29" s="43">
+      <c r="E29" s="89">
         <v>42500.462511574071</v>
       </c>
       <c r="F29" s="43" t="s">
         <v>318</v>
       </c>
-      <c r="G29" s="43">
+      <c r="G29" s="88">
         <v>2.918981480615912E-2</v>
       </c>
-      <c r="H29" s="43" t="s">
+      <c r="H29" s="85" t="s">
         <v>1525</v>
       </c>
     </row>
@@ -30685,19 +30707,19 @@
       <c r="C30" s="43">
         <v>4007</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="89">
         <v>42500.476377314815</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="89">
         <v>42500.49145833333</v>
       </c>
       <c r="F30" s="43" t="s">
         <v>316</v>
       </c>
-      <c r="G30" s="43">
+      <c r="G30" s="88">
         <v>2.7210648142499849E-2</v>
       </c>
-      <c r="H30" s="43" t="s">
+      <c r="H30" s="85" t="s">
         <v>1525</v>
       </c>
     </row>
@@ -30711,19 +30733,19 @@
       <c r="C31" s="43">
         <v>4039</v>
       </c>
-      <c r="D31" s="43">
+      <c r="D31" s="89">
         <v>42501.420763888891</v>
       </c>
-      <c r="E31" s="43">
+      <c r="E31" s="89">
         <v>42501.449305555558</v>
       </c>
       <c r="F31" s="43" t="s">
         <v>1714</v>
       </c>
-      <c r="G31" s="43">
+      <c r="G31" s="88">
         <v>2.8541666666569654E-2</v>
       </c>
-      <c r="H31" s="43" t="s">
+      <c r="H31" s="85" t="s">
         <v>1817</v>
       </c>
     </row>
@@ -30737,19 +30759,19 @@
       <c r="C32" s="43">
         <v>4020</v>
       </c>
-      <c r="D32" s="43">
+      <c r="D32" s="89">
         <v>42501.609490740739</v>
       </c>
-      <c r="E32" s="43">
+      <c r="E32" s="89">
         <v>42501.631886574076</v>
       </c>
       <c r="F32" s="43" t="s">
         <v>1755</v>
       </c>
-      <c r="G32" s="43">
+      <c r="G32" s="88">
         <v>2.2395833337213844E-2</v>
       </c>
-      <c r="H32" s="43" t="s">
+      <c r="H32" s="85" t="s">
         <v>1813</v>
       </c>
     </row>
@@ -30763,19 +30785,19 @@
       <c r="C33" s="43">
         <v>4032</v>
       </c>
-      <c r="D33" s="43">
+      <c r="D33" s="89">
         <v>42502.060023148151</v>
       </c>
-      <c r="E33" s="43">
+      <c r="E33" s="89">
         <v>42502.084224537037</v>
       </c>
       <c r="F33" s="43" t="s">
         <v>1812</v>
       </c>
-      <c r="G33" s="43">
+      <c r="G33" s="88">
         <v>2.4201388885558117E-2</v>
       </c>
-      <c r="H33" s="43" t="s">
+      <c r="H33" s="85" t="s">
         <v>1816</v>
       </c>
     </row>
@@ -30789,348 +30811,346 @@
       <c r="C34" s="43">
         <v>4007</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34" s="89">
         <v>42501.756284722222</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="89">
         <v>42501.784502314818</v>
       </c>
       <c r="F34" s="43" t="s">
         <v>1785</v>
       </c>
-      <c r="G34" s="43">
+      <c r="G34" s="88">
         <v>2.8217592596774921E-2</v>
       </c>
-      <c r="H34" s="43" t="s">
+      <c r="H34" s="85" t="s">
         <v>1814</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="61">
-        <v>42502</v>
-      </c>
-      <c r="B35" s="43" t="s">
+        <v>42503</v>
+      </c>
+      <c r="B35" s="41" t="s">
         <v>1822</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="6">
         <v>4028</v>
       </c>
-      <c r="D35" s="43">
+      <c r="D35" s="90">
         <v>42502.2109837963</v>
       </c>
-      <c r="E35" s="43">
+      <c r="E35" s="91">
         <v>42502.216412037036</v>
       </c>
       <c r="F35" s="43" t="s">
         <v>323</v>
       </c>
-      <c r="G35" s="43">
+      <c r="G35" s="21">
         <v>5.428240736364387E-3</v>
       </c>
-      <c r="H35" s="43" t="s">
+      <c r="H35" s="86" t="s">
         <v>1958</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="61">
-        <v>42502</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>1900</v>
-      </c>
-      <c r="C36" s="43">
-        <v>4026</v>
-      </c>
-      <c r="D36" s="43">
-        <v>42502.612407407411</v>
-      </c>
-      <c r="E36" s="43">
-        <v>42502.691782407404</v>
+        <v>42504</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C36" s="6">
+        <v>4025</v>
+      </c>
+      <c r="D36" s="23">
+        <v>42502.656307870369</v>
+      </c>
+      <c r="E36" s="25">
+        <v>42502.662777777776</v>
       </c>
       <c r="F36" s="43" t="s">
         <v>319</v>
       </c>
-      <c r="G36" s="43">
-        <v>7.9374999993888196E-2</v>
-      </c>
-      <c r="H36" s="43" t="s">
-        <v>1962</v>
+      <c r="G36" s="21">
+        <v>6.4699074064265005E-3</v>
+      </c>
+      <c r="H36" s="86" t="s">
+        <v>1963</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="61">
-        <v>42502</v>
-      </c>
-      <c r="B37" s="43" t="s">
+        <v>42505</v>
+      </c>
+      <c r="B37" s="41" t="s">
         <v>1923</v>
       </c>
-      <c r="C37" s="43">
+      <c r="C37" s="6">
         <v>4010</v>
       </c>
-      <c r="D37" s="43">
+      <c r="D37" s="23">
         <v>42502.748541666668</v>
       </c>
-      <c r="E37" s="43">
+      <c r="E37" s="25">
         <v>42502.780266203707</v>
       </c>
       <c r="F37" s="43" t="s">
         <v>1370</v>
       </c>
-      <c r="G37" s="43">
+      <c r="G37" s="20">
         <v>3.1724537038826384E-2</v>
       </c>
-      <c r="H37" s="43" t="s">
-        <v>1960</v>
+      <c r="H37" s="86" t="s">
+        <v>1959</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="61">
-        <v>42502</v>
-      </c>
-      <c r="B38" s="43" t="s">
+        <v>42506</v>
+      </c>
+      <c r="B38" s="41" t="s">
         <v>1827</v>
       </c>
-      <c r="C38" s="43">
+      <c r="C38" s="6">
         <v>4014</v>
       </c>
-      <c r="D38" s="43">
+      <c r="D38" s="23">
         <v>42502.206296296295</v>
       </c>
-      <c r="E38" s="43">
+      <c r="E38" s="25">
         <v>42502.235486111109</v>
       </c>
       <c r="F38" s="43" t="s">
         <v>321</v>
       </c>
-      <c r="G38" s="43">
+      <c r="G38" s="21">
         <v>2.9189814813435078E-2</v>
       </c>
-      <c r="H38" s="43" t="s">
+      <c r="H38" s="86" t="s">
         <v>1226</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="61">
-        <v>42502</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>1908</v>
-      </c>
-      <c r="C39" s="43">
-        <v>4008</v>
-      </c>
-      <c r="D39" s="43">
-        <v>42502.737372685187</v>
-      </c>
-      <c r="E39" s="43">
-        <v>42502.766898148147</v>
+        <v>42507</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C39" s="6">
+        <v>4009</v>
+      </c>
+      <c r="D39" s="23">
+        <v>42502.712488425925</v>
+      </c>
+      <c r="E39" s="25">
+        <v>42502.744629629633</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>316</v>
-      </c>
-      <c r="G39" s="43">
-        <v>2.9525462960009463E-2</v>
-      </c>
-      <c r="H39" s="43" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G39" s="20">
+        <v>3.2141203708306421E-2</v>
+      </c>
+      <c r="H39" s="86" t="s">
         <v>1224</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="61">
-        <v>42502</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>1922</v>
-      </c>
-      <c r="C40" s="43">
-        <v>4009</v>
-      </c>
-      <c r="D40" s="43">
-        <v>42502.712488425925</v>
-      </c>
-      <c r="E40" s="43">
-        <v>42502.744629629633</v>
+        <v>42508</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C40" s="6">
+        <v>4008</v>
+      </c>
+      <c r="D40" s="23">
+        <v>42502.737372685187</v>
+      </c>
+      <c r="E40" s="25">
+        <v>42502.766898148147</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>1370</v>
-      </c>
-      <c r="G40" s="43">
-        <v>3.2141203708306421E-2</v>
-      </c>
-      <c r="H40" s="43" t="s">
-        <v>1224</v>
+        <v>316</v>
+      </c>
+      <c r="G40" s="21">
+        <v>2.9525462960009463E-2</v>
+      </c>
+      <c r="H40" s="86" t="s">
+        <v>1962</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="61">
-        <v>42502</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>1913</v>
-      </c>
-      <c r="C41" s="43">
-        <v>4025</v>
-      </c>
-      <c r="D41" s="43">
-        <v>42502.656307870369</v>
-      </c>
-      <c r="E41" s="43">
-        <v>42502.662777777776</v>
+        <v>42509</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C41" s="6">
+        <v>4018</v>
+      </c>
+      <c r="D41" s="23">
+        <v>42502.747557870367</v>
+      </c>
+      <c r="E41" s="25">
+        <v>42502.77783564815</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="G41" s="43">
-        <v>6.4699074064265005E-3</v>
-      </c>
-      <c r="H41" s="43" t="s">
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="61">
-        <v>42502</v>
-      </c>
-      <c r="B42" s="43" t="s">
-        <v>1928</v>
-      </c>
-      <c r="C42" s="43">
-        <v>4018</v>
-      </c>
-      <c r="D42" s="43">
-        <v>42502.747557870367</v>
-      </c>
-      <c r="E42" s="43">
-        <v>42502.77783564815</v>
-      </c>
-      <c r="F42" s="43" t="s">
         <v>625</v>
       </c>
-      <c r="G42" s="43">
+      <c r="G41" s="21">
         <v>3.0277777783339843E-2</v>
       </c>
-      <c r="H42" s="43" t="s">
-        <v>1961</v>
+      <c r="H41" s="86" t="s">
+        <v>1960</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:H4">
-    <cfRule type="expression" dxfId="156" priority="37">
+    <cfRule type="expression" dxfId="172" priority="45">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="38">
+    <cfRule type="expression" dxfId="171" priority="46">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="39">
+    <cfRule type="expression" dxfId="170" priority="47">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:G8 F5:H6">
-    <cfRule type="expression" dxfId="153" priority="34">
+    <cfRule type="expression" dxfId="169" priority="42">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="35">
+    <cfRule type="expression" dxfId="168" priority="43">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="36">
+    <cfRule type="expression" dxfId="167" priority="44">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:E8 H9:H11 H14:H18">
-    <cfRule type="expression" dxfId="150" priority="32">
+    <cfRule type="expression" dxfId="166" priority="40">
       <formula>$Q5&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="33">
+    <cfRule type="expression" dxfId="165" priority="41">
       <formula>$P5&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="148" priority="29">
+    <cfRule type="expression" dxfId="164" priority="37">
       <formula>$Q7&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="30">
+    <cfRule type="expression" dxfId="163" priority="38">
       <formula>$P7&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="146" priority="26">
+    <cfRule type="expression" dxfId="162" priority="34">
       <formula>$Q8&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="27">
+    <cfRule type="expression" dxfId="161" priority="35">
       <formula>$P8&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G11">
-    <cfRule type="expression" dxfId="144" priority="22">
+    <cfRule type="expression" dxfId="160" priority="30">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="23">
+    <cfRule type="expression" dxfId="159" priority="31">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="24">
+    <cfRule type="expression" dxfId="158" priority="32">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:E11">
-    <cfRule type="expression" dxfId="141" priority="20">
+    <cfRule type="expression" dxfId="157" priority="28">
       <formula>$Q9&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="21">
+    <cfRule type="expression" dxfId="156" priority="29">
       <formula>$P9&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:G13">
-    <cfRule type="expression" dxfId="139" priority="16">
+    <cfRule type="expression" dxfId="155" priority="24">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="17">
+    <cfRule type="expression" dxfId="154" priority="25">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="18">
+    <cfRule type="expression" dxfId="153" priority="26">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:E13">
-    <cfRule type="expression" dxfId="136" priority="14">
+    <cfRule type="expression" dxfId="152" priority="22">
       <formula>$Q12&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="15">
+    <cfRule type="expression" dxfId="151" priority="23">
       <formula>$P12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="134" priority="11">
+    <cfRule type="expression" dxfId="150" priority="19">
       <formula>$Q12&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="12">
+    <cfRule type="expression" dxfId="149" priority="20">
       <formula>$P12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="132" priority="8">
+    <cfRule type="expression" dxfId="148" priority="16">
       <formula>$Q13&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="9">
+    <cfRule type="expression" dxfId="147" priority="17">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:G18">
-    <cfRule type="expression" dxfId="130" priority="4">
+    <cfRule type="expression" dxfId="146" priority="12">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="5">
+    <cfRule type="expression" dxfId="145" priority="13">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="6">
+    <cfRule type="expression" dxfId="144" priority="14">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:E18">
-    <cfRule type="expression" dxfId="127" priority="2">
+    <cfRule type="expression" dxfId="143" priority="10">
       <formula>$Q14&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="3">
+    <cfRule type="expression" dxfId="142" priority="11">
       <formula>$P14&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:E41 G35:H41">
+    <cfRule type="expression" dxfId="15" priority="6">
+      <formula>#REF!&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="7">
+      <formula>#REF!&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="8">
+      <formula>#REF!&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:C41 F35:F41">
+    <cfRule type="expression" dxfId="9" priority="4">
+      <formula>$P35&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="5">
+      <formula>$O35&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:E41 G35:H41">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>NOT(ISBLANK($G35))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31139,7 +31159,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="31" id="{BC003AF5-22DB-42CA-B5A8-20B28FE04BD1}">
+          <x14:cfRule type="expression" priority="39" id="{BC003AF5-22DB-42CA-B5A8-20B28FE04BD1}">
             <xm:f>$O5&gt;'[Train Runs and Enforcements 2016-05-02.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -31152,7 +31172,7 @@
           <xm:sqref>B5:E8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="28" id="{768DC1D6-EAC4-4AE5-BD77-4CF73FFCAEE4}">
+          <x14:cfRule type="expression" priority="36" id="{768DC1D6-EAC4-4AE5-BD77-4CF73FFCAEE4}">
             <xm:f>$O7&gt;'[Train Runs and Enforcements 2016-05-02.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -31165,7 +31185,7 @@
           <xm:sqref>H7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="25" id="{990A1E29-28EB-4CC1-9829-686C2F586E44}">
+          <x14:cfRule type="expression" priority="33" id="{990A1E29-28EB-4CC1-9829-686C2F586E44}">
             <xm:f>$O8&gt;'[Train Runs and Enforcements 2016-05-02.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -31178,7 +31198,7 @@
           <xm:sqref>H8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="19" id="{90BE2B41-578A-47E5-AB1B-9C1DE1F75F56}">
+          <x14:cfRule type="expression" priority="27" id="{90BE2B41-578A-47E5-AB1B-9C1DE1F75F56}">
             <xm:f>$O9&gt;'[Train Runs and Enforcements 2016-05-03.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -31191,7 +31211,7 @@
           <xm:sqref>B9:E11 H9:H11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="13" id="{DEF23834-7A93-4650-B85D-428E27C6D4FD}">
+          <x14:cfRule type="expression" priority="21" id="{DEF23834-7A93-4650-B85D-428E27C6D4FD}">
             <xm:f>$O12&gt;'[Train Runs and Enforcements 2016-05-04.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -31204,7 +31224,7 @@
           <xm:sqref>B12:E13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="10" id="{D8A6A31C-5814-4F66-AD96-5122C947903E}">
+          <x14:cfRule type="expression" priority="18" id="{D8A6A31C-5814-4F66-AD96-5122C947903E}">
             <xm:f>$O12&gt;'[Train Runs and Enforcements 2016-05-03.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -31217,7 +31237,7 @@
           <xm:sqref>H12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="7" id="{452D9B30-09D1-4B77-B3E4-6B553FF40F3E}">
+          <x14:cfRule type="expression" priority="15" id="{452D9B30-09D1-4B77-B3E4-6B553FF40F3E}">
             <xm:f>$O13&gt;'[Train Runs and Enforcements 2016-05-02.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -31230,7 +31250,7 @@
           <xm:sqref>H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{0BA6D3D1-BBBC-4D83-A816-59A7D72483D3}">
+          <x14:cfRule type="expression" priority="9" id="{0BA6D3D1-BBBC-4D83-A816-59A7D72483D3}">
             <xm:f>$O14&gt;'[Train Runs and Enforcements 2016-05-05.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -31242,6 +31262,32 @@
           </x14:cfRule>
           <xm:sqref>B14:E18 H14:H18</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3" id="{4DCB4A53-5002-4A0F-9540-4AEDB52C39EC}">
+            <xm:f>$N35&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B35:C41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{279003F5-4C46-458C-8A17-8A8BB317C31D}">
+            <xm:f>$N35&gt;'[Train Runs and Enforcements 2016-05-10.xlsx]Variables'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F35:F41</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -31252,8 +31298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F112"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C63" activeCellId="6" sqref="C103 C111 C95 C87 C79 C71 C63"/>
+    <sheetView showGridLines="0" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C111" activeCellId="6" sqref="C63 C71 C79 C87 C95 C103 C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31267,124 +31313,124 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="67" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="76"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="78">
+      <c r="C3" s="70">
         <f>'2016-05-01 Train Runs'!K6</f>
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="78">
+      <c r="C4" s="70">
         <f>'2016-05-02 Train Runs'!K6</f>
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="78">
+      <c r="C5" s="70">
         <f>'2016-05-03 Train Runs'!K6</f>
         <v>141</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="78">
+      <c r="C6" s="70">
         <f>'2016-05-04 Train Runs'!K6</f>
         <v>141</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="70">
         <f>'2016-05-05 Train Runs'!K6</f>
         <v>139</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="69" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="78">
+      <c r="C8" s="70">
         <f>'2016-05-06 Train Runs'!K6</f>
         <v>146</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="78">
+      <c r="C9" s="70">
         <f>'2016-05-07 Train Runs'!K6</f>
         <v>141</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="78">
+      <c r="C10" s="70">
         <f>'2016-05-08 Train Runs'!K6</f>
         <v>137</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="69" t="s">
         <v>1374</v>
       </c>
-      <c r="C11" s="79">
+      <c r="C11" s="71">
         <f>C85</f>
         <v>137</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="69" t="s">
         <v>1523</v>
       </c>
-      <c r="C12" s="79">
+      <c r="C12" s="71">
         <f>C93</f>
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="69" t="s">
         <v>1815</v>
       </c>
-      <c r="C13" s="79">
+      <c r="C13" s="71">
         <f>$C$100</f>
         <v>144</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="77" t="s">
-        <v>1963</v>
-      </c>
-      <c r="C14" s="87">
+      <c r="B14" s="69" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C14" s="76">
         <f>$C$108</f>
         <v>141</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="81">
+      <c r="C15" s="73">
         <f>SUM(C3:C14)</f>
         <v>1675</v>
       </c>
@@ -31395,11 +31441,11 @@
         <v>42491</v>
       </c>
       <c r="C18" s="27"/>
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="82"/>
-      <c r="F18" s="83"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="80"/>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="34"/>
@@ -31532,11 +31578,11 @@
         <v>42492</v>
       </c>
       <c r="C26" s="57"/>
-      <c r="D26" s="84" t="s">
+      <c r="D26" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="84"/>
-      <c r="F26" s="85"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="78"/>
     </row>
     <row r="27" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="34"/>
@@ -31669,11 +31715,11 @@
         <v>42493</v>
       </c>
       <c r="C34" s="57"/>
-      <c r="D34" s="84" t="s">
+      <c r="D34" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="84"/>
-      <c r="F34" s="85"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="78"/>
     </row>
     <row r="35" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="34"/>
@@ -31801,11 +31847,11 @@
         <v>42494</v>
       </c>
       <c r="C42" s="57"/>
-      <c r="D42" s="84" t="s">
+      <c r="D42" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="84"/>
-      <c r="F42" s="85"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="78"/>
     </row>
     <row r="43" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="34"/>
@@ -31933,11 +31979,11 @@
         <v>42495</v>
       </c>
       <c r="C50" s="57"/>
-      <c r="D50" s="84" t="s">
+      <c r="D50" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="84"/>
-      <c r="F50" s="85"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="78"/>
     </row>
     <row r="51" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="34"/>
@@ -32065,11 +32111,11 @@
         <v>42496</v>
       </c>
       <c r="C58" s="57"/>
-      <c r="D58" s="84" t="s">
+      <c r="D58" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="84"/>
-      <c r="F58" s="85"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="78"/>
     </row>
     <row r="59" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="34"/>
@@ -32197,11 +32243,11 @@
         <v>42497</v>
       </c>
       <c r="C66" s="57"/>
-      <c r="D66" s="84" t="s">
+      <c r="D66" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="84"/>
-      <c r="F66" s="85"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="78"/>
     </row>
     <row r="67" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="34"/>
@@ -32329,11 +32375,11 @@
         <v>42498</v>
       </c>
       <c r="C74" s="57"/>
-      <c r="D74" s="84" t="s">
+      <c r="D74" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E74" s="84"/>
-      <c r="F74" s="85"/>
+      <c r="E74" s="77"/>
+      <c r="F74" s="78"/>
     </row>
     <row r="75" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="34"/>
@@ -32461,11 +32507,11 @@
         <v>42499</v>
       </c>
       <c r="C82" s="57"/>
-      <c r="D82" s="84" t="s">
+      <c r="D82" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E82" s="84"/>
-      <c r="F82" s="85"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="78"/>
     </row>
     <row r="83" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="34"/>
@@ -32593,11 +32639,11 @@
         <v>42500</v>
       </c>
       <c r="C90" s="57"/>
-      <c r="D90" s="84" t="s">
+      <c r="D90" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E90" s="84"/>
-      <c r="F90" s="85"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="78"/>
     </row>
     <row r="91" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="34"/>
@@ -32719,23 +32765,23 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="73"/>
-      <c r="C97" s="74"/>
-      <c r="D97" s="74"/>
-      <c r="E97" s="74"/>
-      <c r="F97" s="74"/>
+    <row r="97" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="92"/>
+      <c r="C97" s="93"/>
+      <c r="D97" s="93"/>
+      <c r="E97" s="93"/>
+      <c r="F97" s="93"/>
     </row>
     <row r="98" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="69">
+      <c r="B98" s="26">
         <v>42501</v>
       </c>
-      <c r="C98" s="70"/>
-      <c r="D98" s="71" t="s">
+      <c r="C98" s="27"/>
+      <c r="D98" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E98" s="71"/>
-      <c r="F98" s="72"/>
+      <c r="E98" s="74"/>
+      <c r="F98" s="75"/>
     </row>
     <row r="99" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="34"/>
@@ -32857,16 +32903,17 @@
         <v>NA</v>
       </c>
     </row>
+    <row r="105" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="106" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="69">
+      <c r="B106" s="26">
         <v>42502</v>
       </c>
-      <c r="C106" s="70"/>
-      <c r="D106" s="71" t="s">
+      <c r="C106" s="27"/>
+      <c r="D106" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E106" s="71"/>
-      <c r="F106" s="72"/>
+      <c r="E106" s="74"/>
+      <c r="F106" s="75"/>
     </row>
     <row r="107" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="34"/>
@@ -32910,7 +32957,7 @@
       </c>
       <c r="C109" s="30">
         <f>'2016-05-12 Train Runs'!K6</f>
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D109" s="31">
         <f>'2016-05-12 Train Runs'!L6</f>
@@ -32931,7 +32978,7 @@
       </c>
       <c r="C110" s="35">
         <f>'2016-05-12 Train Runs'!K7</f>
-        <v>0.94326241134751776</v>
+        <v>0.95035460992907805</v>
       </c>
       <c r="D110" s="32" t="str">
         <f>'2016-05-12 Train Runs'!L7</f>
@@ -32952,7 +32999,7 @@
       </c>
       <c r="C111" s="30">
         <f>'2016-05-12 Train Runs'!K8</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D111" s="32" t="str">
         <f>'2016-05-12 Train Runs'!L8</f>
@@ -32990,16 +33037,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D50:F50"/>
     <mergeCell ref="D90:F90"/>
     <mergeCell ref="D82:F82"/>
     <mergeCell ref="D74:F74"/>
     <mergeCell ref="D66:F66"/>
     <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D50:F50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -33032,14 +33079,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -33148,11 +33195,11 @@
         <v>42491</v>
       </c>
       <c r="K3" s="27"/>
-      <c r="L3" s="82" t="s">
+      <c r="L3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="83"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="80"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
@@ -36614,18 +36661,18 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="G87">
-    <cfRule type="expression" dxfId="117" priority="1">
+    <cfRule type="expression" dxfId="133" priority="1">
       <formula>$F87="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G86 G88:G146 A3:F146">
-    <cfRule type="expression" dxfId="116" priority="22">
+    <cfRule type="expression" dxfId="132" priority="22">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="23">
+    <cfRule type="expression" dxfId="131" priority="23">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="24">
+    <cfRule type="expression" dxfId="130" priority="24">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36660,14 +36707,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -36774,11 +36821,11 @@
         <v>42492</v>
       </c>
       <c r="K3" s="27"/>
-      <c r="L3" s="82" t="s">
+      <c r="L3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="83"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="80"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
@@ -39887,37 +39934,37 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="E54:G61 E53:F53 E63:G141 E62:F62 E3:G52">
-    <cfRule type="expression" dxfId="113" priority="26">
+    <cfRule type="expression" dxfId="129" priority="26">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="27">
+    <cfRule type="expression" dxfId="128" priority="27">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="28">
+    <cfRule type="expression" dxfId="127" priority="28">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D141">
-    <cfRule type="expression" dxfId="110" priority="20">
+    <cfRule type="expression" dxfId="126" priority="20">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="21">
+    <cfRule type="expression" dxfId="125" priority="21">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="expression" dxfId="108" priority="5">
+    <cfRule type="expression" dxfId="124" priority="5">
       <formula>$P53&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="6">
+    <cfRule type="expression" dxfId="123" priority="6">
       <formula>$O53&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="expression" dxfId="106" priority="2">
+    <cfRule type="expression" dxfId="122" priority="2">
       <formula>$P62&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="3">
+    <cfRule type="expression" dxfId="121" priority="3">
       <formula>$O62&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39997,14 +40044,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -40111,11 +40158,11 @@
         <v>42493</v>
       </c>
       <c r="K3" s="27"/>
-      <c r="L3" s="82" t="s">
+      <c r="L3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="83"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="80"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -43295,21 +43342,21 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:F3 E4:E10 F4:F146">
-    <cfRule type="expression" dxfId="101" priority="16">
+    <cfRule type="expression" dxfId="117" priority="16">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="17">
+    <cfRule type="expression" dxfId="116" priority="17">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="18">
+    <cfRule type="expression" dxfId="115" priority="18">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D146 G3:G146">
-    <cfRule type="expression" dxfId="98" priority="14">
+    <cfRule type="expression" dxfId="114" priority="14">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="15">
+    <cfRule type="expression" dxfId="113" priority="15">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43363,14 +43410,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -43477,11 +43524,11 @@
         <v>42494</v>
       </c>
       <c r="K3" s="27"/>
-      <c r="L3" s="82" t="s">
+      <c r="L3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="83"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="80"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -46670,45 +46717,45 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A148:G149 E22:G54 E21:F21 E56:G147 E55:F55 E3:G16 E18:G20 E17:F17">
-    <cfRule type="expression" dxfId="95" priority="22">
+    <cfRule type="expression" dxfId="111" priority="22">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="23">
+    <cfRule type="expression" dxfId="110" priority="23">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="24">
+    <cfRule type="expression" dxfId="109" priority="24">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D147">
-    <cfRule type="expression" dxfId="92" priority="20">
+    <cfRule type="expression" dxfId="108" priority="20">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="21">
+    <cfRule type="expression" dxfId="107" priority="21">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="90" priority="8">
+    <cfRule type="expression" dxfId="106" priority="8">
       <formula>$P21&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="9">
+    <cfRule type="expression" dxfId="105" priority="9">
       <formula>$O21&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="expression" dxfId="88" priority="5">
+    <cfRule type="expression" dxfId="104" priority="5">
       <formula>$P55&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="6">
+    <cfRule type="expression" dxfId="103" priority="6">
       <formula>$O55&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="86" priority="2">
+    <cfRule type="expression" dxfId="102" priority="2">
       <formula>$P17&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="3">
+    <cfRule type="expression" dxfId="101" priority="3">
       <formula>$O17&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46801,14 +46848,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="81" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -46915,11 +46962,11 @@
         <v>42495</v>
       </c>
       <c r="K3" s="27"/>
-      <c r="L3" s="82" t="s">
+      <c r="L3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="83"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="80"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -50323,21 +50370,21 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A147:G176 E3:F146">
-    <cfRule type="expression" dxfId="80" priority="13">
+    <cfRule type="expression" dxfId="96" priority="13">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="14">
+    <cfRule type="expression" dxfId="95" priority="14">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="15">
+    <cfRule type="expression" dxfId="94" priority="15">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D146 G3:G146">
-    <cfRule type="expression" dxfId="77" priority="11">
+    <cfRule type="expression" dxfId="93" priority="11">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="12">
+    <cfRule type="expression" dxfId="92" priority="12">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50391,14 +50438,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="81" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -50505,11 +50552,11 @@
         <v>42496</v>
       </c>
       <c r="K3" s="27"/>
-      <c r="L3" s="82" t="s">
+      <c r="L3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="83"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="80"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -53918,56 +53965,56 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A151:G175 C149:G150">
-    <cfRule type="expression" dxfId="74" priority="28">
+    <cfRule type="expression" dxfId="90" priority="28">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="29">
+    <cfRule type="expression" dxfId="89" priority="29">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="30">
+    <cfRule type="expression" dxfId="88" priority="30">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149:B150">
-    <cfRule type="expression" dxfId="71" priority="26">
+    <cfRule type="expression" dxfId="87" priority="26">
       <formula>$P149&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="27">
+    <cfRule type="expression" dxfId="86" priority="27">
       <formula>$O149&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:G148">
-    <cfRule type="expression" dxfId="69" priority="10">
+    <cfRule type="expression" dxfId="85" priority="10">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="11">
+    <cfRule type="expression" dxfId="84" priority="11">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="12">
+    <cfRule type="expression" dxfId="83" priority="12">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B148">
-    <cfRule type="expression" dxfId="66" priority="8">
+    <cfRule type="expression" dxfId="82" priority="8">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="9">
+    <cfRule type="expression" dxfId="81" priority="9">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C148">
-    <cfRule type="expression" dxfId="64" priority="5">
+    <cfRule type="expression" dxfId="80" priority="5">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="6">
+    <cfRule type="expression" dxfId="79" priority="6">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D148">
-    <cfRule type="expression" dxfId="62" priority="2">
+    <cfRule type="expression" dxfId="78" priority="2">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="3">
+    <cfRule type="expression" dxfId="77" priority="3">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
